--- a/Karthick Raja.xlsx
+++ b/Karthick Raja.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>C Programming:</t>
   </si>
@@ -199,7 +199,44 @@
     <t>It is used in dynamic memory allocation,  and in arrays to access and manipulate  the element in it.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.call by reference.                              2. creating a dynamic memory.            3.pointer to an array.                4. Array of pointers.             </t>
+    <t xml:space="preserve">1.call by reference.                              2. creating a dynamic memory.            3.pointer to an array.                4. Array of pointers.              5. adding elements in an array         </t>
+  </si>
+  <si>
+    <t>to store a word or more a sentence in a single variable .</t>
+  </si>
+  <si>
+    <t>it is to work and manipulate text data .    Where ever we need a word or a sentence or paragraph , we can go with strings.</t>
+  </si>
+  <si>
+    <t>1. to find length of a string.           2. concadination of two strings.   3.to check string is palindrome or not.                     4.  reverse a string.                   5.to count number of vowels.</t>
+  </si>
+  <si>
+    <t>if we had many functions in a program means it is difficult to call them by its name , for that function poiter is useful.</t>
+  </si>
+  <si>
+    <t>It is about decreasing the complexity of a program while using the multiple functions.       We can use this where  multiple function are used in a single program.</t>
+  </si>
+  <si>
+    <t>1. add, sub , mul, div are in different function and for that I used array of function pointer.</t>
+  </si>
+  <si>
+    <t>To store elements of different data types.</t>
+  </si>
+  <si>
+    <t>in structures each elements have its own memory where as in union  the memory  of largest data type is shared by every elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Compilation directives help to compile a specific portion of the program 
+or skip compilation of some specific part of the program based on some conditions.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include header files in present working file. It replace the macros in the program.                 To provide shorter or simpler names to alredy existing data types. </t>
+  </si>
+  <si>
+    <t>programs on #if,#else,#elif,#ifndef,#ifdef, #endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Data management system.               2. nested structure           3. pointer to a structure.           4. structure inside union           </t>
   </si>
 </sst>
 </file>
@@ -329,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -371,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -698,12 +738,13 @@
     <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="1.7109375" style="17" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="5"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5">
+    <row r="1" spans="1:9" ht="63.75">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -728,8 +769,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="191.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="89.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8">
@@ -746,8 +787,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="165.75">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="63.75">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8">
@@ -764,12 +805,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="114.75">
+    <row r="4" spans="1:9" ht="63.75">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
@@ -782,7 +823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="76.5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -790,8 +831,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="229.5">
+      <c r="D5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="102">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -809,23 +859,41 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="178.5">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="D7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="127.5">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="15"/>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
@@ -850,18 +918,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="178.5">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="15"/>
+      <c r="D12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="191.25">
       <c r="A13" s="4" t="s">
